--- a/Documents/Iteration Plans - Group 2.xlsx
+++ b/Documents/Iteration Plans - Group 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\semester-project-group-2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF633CA4-A7FF-4CC7-908F-8927FD599F7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E46C310-37FE-4C28-A02C-1ACBA8805E32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1727,7 +1727,9 @@
   </sheetPr>
   <dimension ref="A1:Q1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5512,7 +5514,7 @@
         <v>132</v>
       </c>
       <c r="D104" s="129" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E104" s="130" t="s">
         <v>58</v>
